--- a/Data Files/TestData/Comission.xlsx
+++ b/Data Files/TestData/Comission.xlsx
@@ -4,24 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20310" windowHeight="8325" activeTab="2"/>
+    <workbookView windowWidth="20310" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="MGA" sheetId="1" r:id="rId1"/>
     <sheet name="Insurer" sheetId="2" r:id="rId2"/>
     <sheet name="Broker" sheetId="3" r:id="rId3"/>
+    <sheet name="MGATrialBalance" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="0">
   <si>
     <t>MGA Comission</t>
-  </si>
-  <si>
-    <t>USD 145.50</t>
   </si>
   <si>
     <t>145.50</t>
@@ -30,13 +28,13 @@
     <t>Insurer Comission</t>
   </si>
   <si>
+    <t>84.00</t>
+  </si>
+  <si>
     <t>BrokerComission</t>
   </si>
   <si>
     <t>90.00</t>
-  </si>
-  <si>
-    <t>84.00</t>
   </si>
 </sst>
 </file>
@@ -59,14 +57,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +216,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -236,6 +240,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,6 +264,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,6 +282,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -296,25 +318,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,6 +366,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,49 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +510,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,130 +528,130 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,13 +976,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="16.1428571428571" collapsed="true"/>
   </cols>
@@ -1002,16 +1000,6 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1023,25 +1011,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="18.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1053,13 +1041,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="17.4285714285714" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
@@ -1070,9 +1058,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.8571428571429" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData/Comission.xlsx
+++ b/Data Files/TestData/Comission.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20310" windowHeight="8325"/>
+    <workbookView windowWidth="20310" windowHeight="8325" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MGA" sheetId="1" r:id="rId1"/>
     <sheet name="Insurer" sheetId="2" r:id="rId2"/>
     <sheet name="Broker" sheetId="3" r:id="rId3"/>
     <sheet name="MGATrialBalance" sheetId="4" r:id="rId4"/>
+    <sheet name="InsurerCommission" sheetId="5" r:id="rId5"/>
+    <sheet name="ExpectedBrokerComission" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="0">
   <si>
     <t>MGA Comission</t>
   </si>
@@ -28,13 +30,13 @@
     <t>Insurer Comission</t>
   </si>
   <si>
-    <t>84.00</t>
-  </si>
-  <si>
     <t>BrokerComission</t>
   </si>
   <si>
     <t>90.00</t>
+  </si>
+  <si>
+    <t>InsurerComission</t>
   </si>
 </sst>
 </file>
@@ -57,14 +59,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,25 +218,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,157 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +512,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,31 +530,31 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,22 +572,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -594,69 +596,70 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,15 +979,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.1428571428571" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.1428571428571" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -994,11 +997,6 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1014,12 +1012,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.2857142857143" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="18.2857142857143" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1028,8 +1026,8 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1044,23 +1042,23 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.4285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="17.4285714285714" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="29.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1075,12 +1073,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="19.8571428571429" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1093,34 +1091,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.5714285714286" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>84</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData/Comission.xlsx
+++ b/Data Files/TestData/Comission.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
   <si>
     <t>MGA Comission</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>InsurerComission</t>
+  </si>
+  <si>
+    <t>84.00</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.1428571428571" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.1428571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -997,6 +1000,16 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1017,7 +1030,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.2857142857143" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="18.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1028,6 +1041,16 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1">
         <v>84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1047,8 +1070,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.4285714285714" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="29.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="17.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1058,6 +1081,16 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1078,7 +1111,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.8571428571429" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="19.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1088,6 +1121,16 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1108,7 +1151,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.5714285714286" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="21.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1119,6 +1162,16 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1">
         <v>84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1143,6 +1196,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Data Files/TestData/Comission.xlsx
+++ b/Data Files/TestData/Comission.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="4">
   <si>
     <t>MGA Comission</t>
-  </si>
-  <si>
-    <t>145.50</t>
   </si>
   <si>
     <t>Insurer Comission</t>
@@ -33,13 +30,22 @@
     <t>BrokerComission</t>
   </si>
   <si>
+    <t>InsurerComission</t>
+  </si>
+  <si>
+    <t>ExpectedBrokerComission</t>
+  </si>
+  <si>
+    <t>145.50</t>
+  </si>
+  <si>
     <t>90.00</t>
   </si>
   <si>
-    <t>InsurerComission</t>
+    <t>84.00</t>
   </si>
   <si>
-    <t>84.00</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -293,6 +299,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,12 +329,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,12 +408,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +551,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,88 +581,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,13 +988,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="16.1428571428571" collapsed="true"/>
   </cols>
@@ -998,19 +1004,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1022,35 +1023,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="18.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>84</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1062,13 +1058,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="17.4285714285714" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
@@ -1076,22 +1072,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1103,13 +1094,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="19.8571428571429" collapsed="true"/>
   </cols>
@@ -1119,19 +1110,242 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1360,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1156,22 +1370,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1186,19 +1398,37 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="26.5714285714286" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData/Comission.xlsx
+++ b/Data Files/TestData/Comission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20310" windowHeight="8325" activeTab="5"/>
+    <workbookView windowWidth="20310" windowHeight="8325" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MGA" sheetId="1" r:id="rId1"/>
@@ -19,33 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="0">
   <si>
     <t>MGA Comission</t>
+  </si>
+  <si>
+    <t>291.00</t>
+  </si>
+  <si>
+    <t>436.50</t>
   </si>
   <si>
     <t>Insurer Comission</t>
   </si>
   <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
     <t>BrokerComission</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
   </si>
   <si>
     <t>InsurerComission</t>
   </si>
   <si>
     <t>ExpectedBrokerComission</t>
-  </si>
-  <si>
-    <t>145.50</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -68,14 +74,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +233,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,6 +257,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,6 +281,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,6 +299,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,25 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,6 +383,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,49 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +527,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,136 +545,135 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,13 +993,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="16.1428571428571" collapsed="true"/>
   </cols>
@@ -1004,14 +1009,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1023,30 +1028,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="18.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1058,13 +1063,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="17.4285714285714" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
@@ -1072,17 +1077,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1094,13 +1099,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="19.8571428571429" collapsed="true"/>
   </cols>
@@ -1110,242 +1115,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1357,33 +1144,30 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="21.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1395,40 +1179,40 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="26.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData/Comission.xlsx
+++ b/Data Files/TestData/Comission.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>MGA Comission</t>
   </si>
@@ -60,9 +60,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -203,20 +203,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -239,54 +239,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,18 +311,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,85 +335,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,145 +527,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,7 +1001,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.1428571428571" collapsed="true"/>
+    <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1036,7 +1036,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.2857142857143" collapsed="true"/>
+    <col min="1" max="1" width="18.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1071,8 +1071,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.4285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="17.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1102,12 +1102,12 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="1" max="1" width="19.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1122,16 +1122,6 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1152,7 +1142,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="21.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1187,7 +1177,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="26.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
